--- a/DragAndDrop/Assets/06.Data/Excel/Stage2/Stage2_Tumbleweed_excel.xlsx
+++ b/DragAndDrop/Assets/06.Data/Excel/Stage2/Stage2_Tumbleweed_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.junheeStudy\Team_Project\idle\DragAndDrop\Assets\06.Data\Excel\Stage2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D09EDD-B0A4-4960-9080-FC8A1693522B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E828081-6414-4DB1-8CD8-959B2BD7076C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{63912014-BF4A-4F18-852E-8D74DAEBE5CC}"/>
+    <workbookView xWindow="90" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{63912014-BF4A-4F18-852E-8D74DAEBE5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2C8B6B-81C9-4B21-8DB2-E0724AABC855}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,7 +455,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>57.9</v>
+        <v>57.15</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -466,254 +466,542 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>60</v>
+        <v>57.5</v>
       </c>
       <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>57.9</v>
+      </c>
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1">
+        <v>58.3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1">
+        <v>58.45</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1">
+        <v>60.05</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1">
+        <v>60.25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1">
+        <v>60.45</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1">
+        <v>60.65</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1">
+        <v>61.1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="1">
+        <v>61.3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="1">
+        <v>62.9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="1">
+        <v>63.25</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="1">
+        <v>63.65</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="1">
+        <v>63.9</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="1">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="1">
+        <v>65.75</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="1">
+        <v>65.95</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="1">
+        <v>66.150000000000006</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="1">
+        <v>66.349999999999994</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="1">
+        <v>66.5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="1">
+        <v>66.8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="A25" s="1">
+        <v>67</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="1">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="A27" s="1">
+        <v>69.05</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28" s="1">
+        <v>69.45</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="1">
+        <v>69.7</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="1">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="1">
+        <v>71.5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="1">
+        <v>71.7</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="A33" s="1">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="A34" s="1">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="A35" s="1">
+        <v>72.25</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="A36" s="1">
+        <v>72.55</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="A37" s="1">
+        <v>72.75</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="A38" s="1">
+        <v>74.3</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="A39" s="1">
+        <v>74.7</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="A40" s="1">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="A41" s="1">
+        <v>75.349999999999994</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="A42" s="1">
+        <v>75.55</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="A43" s="1">
+        <v>77.150000000000006</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="A44" s="1">
+        <v>77.349999999999994</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="A45" s="1">
+        <v>77.55</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="A46" s="1">
+        <v>77.75</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="A47" s="1">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="A48" s="1">
+        <v>78.25</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="A49" s="1">
+        <v>78.45</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="A50" s="1">
+        <v>80</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="A51" s="1">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="B51" s="1">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
@@ -744,6 +1032,16 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DragAndDrop/Assets/06.Data/Excel/Stage2/Stage2_Tumbleweed_excel.xlsx
+++ b/DragAndDrop/Assets/06.Data/Excel/Stage2/Stage2_Tumbleweed_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.junheeStudy\Team_Project\idle\DragAndDrop\Assets\06.Data\Excel\Stage2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E828081-6414-4DB1-8CD8-959B2BD7076C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874A339C-98BF-4079-901B-3C90329B7DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{63912014-BF4A-4F18-852E-8D74DAEBE5CC}"/>
+    <workbookView xWindow="3765" yWindow="3615" windowWidth="21600" windowHeight="11385" xr2:uid="{63912014-BF4A-4F18-852E-8D74DAEBE5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2C8B6B-81C9-4B21-8DB2-E0724AABC855}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -458,7 +458,7 @@
         <v>57.15</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -469,7 +469,7 @@
         <v>57.5</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>57.9</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>58.3</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>58.45</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -513,7 +513,7 @@
         <v>60.05</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>60.25</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>60.45</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -546,7 +546,7 @@
         <v>60.65</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -557,7 +557,7 @@
         <v>60.8</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>61.1</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>61.3</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>62.9</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>63.25</v>
       </c>
       <c r="B15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>63.65</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>63.9</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>64.099999999999994</v>
       </c>
       <c r="B18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>65.75</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>65.95</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>66.150000000000006</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>66.349999999999994</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>66.5</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>66.8</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>67</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>68.599999999999994</v>
       </c>
       <c r="B26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>69.05</v>
       </c>
       <c r="B27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>69.45</v>
       </c>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>69.7</v>
       </c>
       <c r="B29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>69.900000000000006</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>71.5</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>71.7</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>71.900000000000006</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>72.099999999999994</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>72.25</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>72.55</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>72.75</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>74.3</v>
       </c>
       <c r="B38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>74.7</v>
       </c>
       <c r="B39" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>75.099999999999994</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>75.349999999999994</v>
       </c>
       <c r="B41" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>75.55</v>
       </c>
       <c r="B42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>77.150000000000006</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>77.349999999999994</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>77.55</v>
       </c>
       <c r="B45" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>77.75</v>
       </c>
       <c r="B46" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>77.900000000000006</v>
       </c>
       <c r="B47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>78.25</v>
       </c>
       <c r="B48" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>78.45</v>
       </c>
       <c r="B49" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
